--- a/めも.XLSX
+++ b/めも.XLSX
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="widget" sheetId="1" r:id="rId1"/>
     <sheet name="label" sheetId="2" r:id="rId2"/>
     <sheet name="bind" sheetId="3" r:id="rId3"/>
     <sheet name="after" sheetId="4" r:id="rId4"/>
+    <sheet name="Button" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -1275,6 +1276,49 @@
         <a:xfrm>
           <a:off x="714375" y="209550"/>
           <a:ext cx="2248214" cy="238158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>172718</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>115106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="171450"/>
+          <a:ext cx="9088118" cy="5772956"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1659,7 +1703,7 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="O11" sqref="O11:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1726,9 +1770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1742,4 +1784,21 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>